--- a/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10102_顧客詳細取得.xlsx
+++ b/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10102_顧客詳細取得.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CB4D04-4752-47AF-ADB5-C4ADFB6C48C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B69227-56C1-4E2A-897E-9C112368E2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="36" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. Webサービス取引概要'!$A$1:$AI$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B10102(顧客詳細取得)'!$A$1:$AI$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B10102(顧客詳細取得)'!$A$1:$AI$71</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">データ!$A$1:$B$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
   <si>
     <t>PJ名</t>
   </si>
@@ -573,15 +573,8 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>顧客詳細取得要求電文</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>顧客詳細取得応答電文</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>I</t>
   </si>
   <si>
     <t>O</t>
@@ -976,16 +969,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>第１．１版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>1.1. Webサービス取引概要</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1006,6 +989,58 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2. B10101（顧客検索）</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>第１．２版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>2.1. 入出力一覧から不用な入出力行を削除、入出力一覧の不備修正</t>
+    <rPh sb="12" eb="14">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ニュウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>フビ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1606,9 +1641,6 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1747,6 +1779,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1789,6 +1830,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2017,6 +2061,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2044,111 +2097,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2156,48 +2197,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2242,16 +2241,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6063,7 +6098,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="31"/>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -6081,12 +6116,12 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="117">
+      <c r="I25" s="116">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>44704</v>
-      </c>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
+        <v>44845</v>
+      </c>
+      <c r="J25" s="116"/>
+      <c r="K25" s="116"/>
       <c r="L25" s="31"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6714,57 +6749,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="155" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="158" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="164" t="s">
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="173" t="s">
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="145" t="str">
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="148" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="148">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="151">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="149"/>
-      <c r="AI1" s="150"/>
+      <c r="AH1" s="152"/>
+      <c r="AI1" s="153"/>
       <c r="AJ1" s="12"/>
       <c r="AK1" s="12"/>
       <c r="AL1" s="12"/>
@@ -6772,53 +6807,53 @@
       <c r="AN1" s="13"/>
     </row>
     <row r="2" spans="1:40" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="155" t="s">
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="181"/>
+      <c r="AA2" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="158" t="str">
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="161" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="159"/>
-      <c r="AE2" s="159"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="148">
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="163"/>
+      <c r="AG2" s="151">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>44704</v>
-      </c>
-      <c r="AH2" s="149"/>
-      <c r="AI2" s="150"/>
+        <v>44845</v>
+      </c>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="153"/>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
@@ -6826,45 +6861,45 @@
       <c r="AN2" s="12"/>
     </row>
     <row r="3" spans="1:40" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="155" t="s">
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="179"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="180"/>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="145"/>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="148"/>
-      <c r="AH3" s="149"/>
-      <c r="AI3" s="150"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="166"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="151"/>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="153"/>
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -6901,1044 +6936,1058 @@
       <c r="A7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="151" t="s">
+      <c r="C7" s="155"/>
+      <c r="D7" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="153"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="151" t="s">
+      <c r="E7" s="156"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="153"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="154" t="s">
+      <c r="H7" s="156"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="153"/>
-      <c r="L7" s="153"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="151" t="s">
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="155"/>
+      <c r="Q7" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="153"/>
-      <c r="U7" s="153"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="153"/>
-      <c r="X7" s="153"/>
-      <c r="Y7" s="153"/>
-      <c r="Z7" s="153"/>
-      <c r="AA7" s="153"/>
-      <c r="AB7" s="153"/>
-      <c r="AC7" s="153"/>
-      <c r="AD7" s="153"/>
-      <c r="AE7" s="152"/>
-      <c r="AF7" s="151" t="s">
+      <c r="R7" s="156"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="156"/>
+      <c r="W7" s="156"/>
+      <c r="X7" s="156"/>
+      <c r="Y7" s="156"/>
+      <c r="Z7" s="156"/>
+      <c r="AA7" s="156"/>
+      <c r="AB7" s="156"/>
+      <c r="AC7" s="156"/>
+      <c r="AD7" s="156"/>
+      <c r="AE7" s="155"/>
+      <c r="AF7" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="153"/>
-      <c r="AH7" s="153"/>
-      <c r="AI7" s="152"/>
+      <c r="AG7" s="156"/>
+      <c r="AH7" s="156"/>
+      <c r="AI7" s="155"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="75">
+      <c r="A8" s="74">
         <v>1</v>
       </c>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="133">
+      <c r="C8" s="134"/>
+      <c r="D8" s="135">
         <v>43718</v>
       </c>
-      <c r="E8" s="134"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="136" t="s">
+      <c r="E8" s="136"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="142"/>
-      <c r="R8" s="143"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="143"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="143"/>
-      <c r="W8" s="143"/>
-      <c r="X8" s="143"/>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="143"/>
-      <c r="AA8" s="143"/>
-      <c r="AB8" s="143"/>
-      <c r="AC8" s="143"/>
-      <c r="AD8" s="143"/>
-      <c r="AE8" s="144"/>
-      <c r="AF8" s="141" t="s">
+      <c r="H8" s="139"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="141"/>
+      <c r="P8" s="142"/>
+      <c r="Q8" s="144"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="145"/>
+      <c r="X8" s="145"/>
+      <c r="Y8" s="145"/>
+      <c r="Z8" s="145"/>
+      <c r="AA8" s="145"/>
+      <c r="AB8" s="145"/>
+      <c r="AC8" s="145"/>
+      <c r="AD8" s="145"/>
+      <c r="AE8" s="146"/>
+      <c r="AF8" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="AG8" s="139"/>
-      <c r="AH8" s="139"/>
-      <c r="AI8" s="140"/>
+      <c r="AG8" s="141"/>
+      <c r="AH8" s="141"/>
+      <c r="AI8" s="142"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="76">
+      <c r="A9" s="75">
         <v>2</v>
       </c>
-      <c r="B9" s="118" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="120">
+      <c r="B9" s="117" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="118"/>
+      <c r="D9" s="119">
         <v>44704</v>
       </c>
-      <c r="E9" s="121"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="302" t="s">
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="123"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="303" t="s">
+      <c r="H9" s="122"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="132" t="s">
+        <v>141</v>
+      </c>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="127"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="127"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="127"/>
+      <c r="AE9" s="128"/>
+      <c r="AF9" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG9" s="124"/>
+      <c r="AH9" s="124"/>
+      <c r="AI9" s="125"/>
+    </row>
+    <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="75"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="131" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="127"/>
+      <c r="AC10" s="127"/>
+      <c r="AD10" s="127"/>
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG10" s="124"/>
+      <c r="AH10" s="124"/>
+      <c r="AI10" s="125"/>
+    </row>
+    <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="75">
+        <v>3</v>
+      </c>
+      <c r="B11" s="147" t="s">
         <v>143</v>
       </c>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="230" t="s">
+      <c r="C11" s="118"/>
+      <c r="D11" s="119">
+        <v>44845</v>
+      </c>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="147" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="122"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="128"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="128"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="303" t="s">
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="132" t="s">
+        <v>147</v>
+      </c>
+      <c r="R11" s="127"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="127"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="127"/>
+      <c r="AE11" s="128"/>
+      <c r="AF11" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="AG9" s="125"/>
-      <c r="AH9" s="125"/>
-      <c r="AI9" s="126"/>
-    </row>
-    <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="76"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="303" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="230" t="s">
-        <v>145</v>
-      </c>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="303" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG10" s="125"/>
-      <c r="AH10" s="125"/>
-      <c r="AI10" s="126"/>
-    </row>
-    <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="76"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="129"/>
-      <c r="AF11" s="124"/>
-      <c r="AG11" s="125"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="126"/>
+      <c r="AG11" s="124"/>
+      <c r="AH11" s="124"/>
+      <c r="AI11" s="125"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="76"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
-      <c r="AA12" s="128"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="128"/>
-      <c r="AD12" s="128"/>
-      <c r="AE12" s="129"/>
-      <c r="AF12" s="124"/>
-      <c r="AG12" s="125"/>
-      <c r="AH12" s="125"/>
-      <c r="AI12" s="126"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="127"/>
+      <c r="U12" s="127"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="127"/>
+      <c r="X12" s="127"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="127"/>
+      <c r="AA12" s="127"/>
+      <c r="AB12" s="127"/>
+      <c r="AC12" s="127"/>
+      <c r="AD12" s="127"/>
+      <c r="AE12" s="128"/>
+      <c r="AF12" s="123"/>
+      <c r="AG12" s="124"/>
+      <c r="AH12" s="124"/>
+      <c r="AI12" s="125"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="76"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128"/>
-      <c r="AC13" s="128"/>
-      <c r="AD13" s="128"/>
-      <c r="AE13" s="129"/>
-      <c r="AF13" s="124"/>
-      <c r="AG13" s="125"/>
-      <c r="AH13" s="125"/>
-      <c r="AI13" s="126"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="127"/>
+      <c r="T13" s="127"/>
+      <c r="U13" s="127"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="127"/>
+      <c r="X13" s="127"/>
+      <c r="Y13" s="127"/>
+      <c r="Z13" s="127"/>
+      <c r="AA13" s="127"/>
+      <c r="AB13" s="127"/>
+      <c r="AC13" s="127"/>
+      <c r="AD13" s="127"/>
+      <c r="AE13" s="128"/>
+      <c r="AF13" s="123"/>
+      <c r="AG13" s="124"/>
+      <c r="AH13" s="124"/>
+      <c r="AI13" s="125"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="76"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
-      <c r="W14" s="128"/>
-      <c r="X14" s="128"/>
-      <c r="Y14" s="128"/>
-      <c r="Z14" s="128"/>
-      <c r="AA14" s="128"/>
-      <c r="AB14" s="128"/>
-      <c r="AC14" s="128"/>
-      <c r="AD14" s="128"/>
-      <c r="AE14" s="129"/>
-      <c r="AF14" s="124"/>
-      <c r="AG14" s="125"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="126"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="127"/>
+      <c r="T14" s="127"/>
+      <c r="U14" s="127"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="127"/>
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="127"/>
+      <c r="AA14" s="127"/>
+      <c r="AB14" s="127"/>
+      <c r="AC14" s="127"/>
+      <c r="AD14" s="127"/>
+      <c r="AE14" s="128"/>
+      <c r="AF14" s="123"/>
+      <c r="AG14" s="124"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="125"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="76"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="129"/>
-      <c r="AF15" s="124"/>
-      <c r="AG15" s="125"/>
-      <c r="AH15" s="125"/>
-      <c r="AI15" s="126"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
+      <c r="Z15" s="127"/>
+      <c r="AA15" s="127"/>
+      <c r="AB15" s="127"/>
+      <c r="AC15" s="127"/>
+      <c r="AD15" s="127"/>
+      <c r="AE15" s="128"/>
+      <c r="AF15" s="123"/>
+      <c r="AG15" s="124"/>
+      <c r="AH15" s="124"/>
+      <c r="AI15" s="125"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="76"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
-      <c r="AC16" s="128"/>
-      <c r="AD16" s="128"/>
-      <c r="AE16" s="129"/>
-      <c r="AF16" s="124"/>
-      <c r="AG16" s="125"/>
-      <c r="AH16" s="125"/>
-      <c r="AI16" s="126"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="128"/>
+      <c r="AF16" s="123"/>
+      <c r="AG16" s="124"/>
+      <c r="AH16" s="124"/>
+      <c r="AI16" s="125"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="76"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="128"/>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="128"/>
-      <c r="AC17" s="128"/>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="129"/>
-      <c r="AF17" s="124"/>
-      <c r="AG17" s="125"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="126"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="128"/>
+      <c r="AF17" s="123"/>
+      <c r="AG17" s="124"/>
+      <c r="AH17" s="124"/>
+      <c r="AI17" s="125"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="76"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="128"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
-      <c r="AD18" s="128"/>
-      <c r="AE18" s="129"/>
-      <c r="AF18" s="124"/>
-      <c r="AG18" s="125"/>
-      <c r="AH18" s="125"/>
-      <c r="AI18" s="126"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="126"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="127"/>
+      <c r="T18" s="127"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="127"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="127"/>
+      <c r="AC18" s="127"/>
+      <c r="AD18" s="127"/>
+      <c r="AE18" s="128"/>
+      <c r="AF18" s="123"/>
+      <c r="AG18" s="124"/>
+      <c r="AH18" s="124"/>
+      <c r="AI18" s="125"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="76"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="129"/>
-      <c r="AF19" s="124"/>
-      <c r="AG19" s="125"/>
-      <c r="AH19" s="125"/>
-      <c r="AI19" s="126"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="127"/>
+      <c r="U19" s="127"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="127"/>
+      <c r="AA19" s="127"/>
+      <c r="AB19" s="127"/>
+      <c r="AC19" s="127"/>
+      <c r="AD19" s="127"/>
+      <c r="AE19" s="128"/>
+      <c r="AF19" s="123"/>
+      <c r="AG19" s="124"/>
+      <c r="AH19" s="124"/>
+      <c r="AI19" s="125"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="76"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="128"/>
-      <c r="U20" s="128"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="128"/>
-      <c r="X20" s="128"/>
-      <c r="Y20" s="128"/>
-      <c r="Z20" s="128"/>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="128"/>
-      <c r="AD20" s="128"/>
-      <c r="AE20" s="129"/>
-      <c r="AF20" s="124"/>
-      <c r="AG20" s="125"/>
-      <c r="AH20" s="125"/>
-      <c r="AI20" s="126"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="127"/>
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="127"/>
+      <c r="AC20" s="127"/>
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="128"/>
+      <c r="AF20" s="123"/>
+      <c r="AG20" s="124"/>
+      <c r="AH20" s="124"/>
+      <c r="AI20" s="125"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="76"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="128"/>
-      <c r="AA21" s="128"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="128"/>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="129"/>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="125"/>
-      <c r="AH21" s="125"/>
-      <c r="AI21" s="126"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="127"/>
+      <c r="T21" s="127"/>
+      <c r="U21" s="127"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="127"/>
+      <c r="X21" s="127"/>
+      <c r="Y21" s="127"/>
+      <c r="Z21" s="127"/>
+      <c r="AA21" s="127"/>
+      <c r="AB21" s="127"/>
+      <c r="AC21" s="127"/>
+      <c r="AD21" s="127"/>
+      <c r="AE21" s="128"/>
+      <c r="AF21" s="123"/>
+      <c r="AG21" s="124"/>
+      <c r="AH21" s="124"/>
+      <c r="AI21" s="125"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="76"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="128"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="128"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="129"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="125"/>
-      <c r="AH22" s="125"/>
-      <c r="AI22" s="126"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="127"/>
+      <c r="T22" s="127"/>
+      <c r="U22" s="127"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="127"/>
+      <c r="AC22" s="127"/>
+      <c r="AD22" s="127"/>
+      <c r="AE22" s="128"/>
+      <c r="AF22" s="123"/>
+      <c r="AG22" s="124"/>
+      <c r="AH22" s="124"/>
+      <c r="AI22" s="125"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="76"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="129"/>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="125"/>
-      <c r="AH23" s="125"/>
-      <c r="AI23" s="126"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="127"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="127"/>
+      <c r="AC23" s="127"/>
+      <c r="AD23" s="127"/>
+      <c r="AE23" s="128"/>
+      <c r="AF23" s="123"/>
+      <c r="AG23" s="124"/>
+      <c r="AH23" s="124"/>
+      <c r="AI23" s="125"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="76"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="128"/>
-      <c r="T24" s="128"/>
-      <c r="U24" s="128"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="128"/>
-      <c r="X24" s="128"/>
-      <c r="Y24" s="128"/>
-      <c r="Z24" s="128"/>
-      <c r="AA24" s="128"/>
-      <c r="AB24" s="128"/>
-      <c r="AC24" s="128"/>
-      <c r="AD24" s="128"/>
-      <c r="AE24" s="129"/>
-      <c r="AF24" s="124"/>
-      <c r="AG24" s="125"/>
-      <c r="AH24" s="125"/>
-      <c r="AI24" s="126"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="127"/>
+      <c r="T24" s="127"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127"/>
+      <c r="X24" s="127"/>
+      <c r="Y24" s="127"/>
+      <c r="Z24" s="127"/>
+      <c r="AA24" s="127"/>
+      <c r="AB24" s="127"/>
+      <c r="AC24" s="127"/>
+      <c r="AD24" s="127"/>
+      <c r="AE24" s="128"/>
+      <c r="AF24" s="123"/>
+      <c r="AG24" s="124"/>
+      <c r="AH24" s="124"/>
+      <c r="AI24" s="125"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="76"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="128"/>
-      <c r="U25" s="128"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="128"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="128"/>
-      <c r="AA25" s="128"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="128"/>
-      <c r="AE25" s="129"/>
-      <c r="AF25" s="124"/>
-      <c r="AG25" s="125"/>
-      <c r="AH25" s="125"/>
-      <c r="AI25" s="126"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="127"/>
+      <c r="U25" s="127"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="127"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="127"/>
+      <c r="AA25" s="127"/>
+      <c r="AB25" s="127"/>
+      <c r="AC25" s="127"/>
+      <c r="AD25" s="127"/>
+      <c r="AE25" s="128"/>
+      <c r="AF25" s="123"/>
+      <c r="AG25" s="124"/>
+      <c r="AH25" s="124"/>
+      <c r="AI25" s="125"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="76"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="128"/>
-      <c r="S26" s="128"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="128"/>
-      <c r="X26" s="128"/>
-      <c r="Y26" s="128"/>
-      <c r="Z26" s="128"/>
-      <c r="AA26" s="128"/>
-      <c r="AB26" s="128"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="129"/>
-      <c r="AF26" s="124"/>
-      <c r="AG26" s="125"/>
-      <c r="AH26" s="125"/>
-      <c r="AI26" s="126"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="124"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="127"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="127"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127"/>
+      <c r="Z26" s="127"/>
+      <c r="AA26" s="127"/>
+      <c r="AB26" s="127"/>
+      <c r="AC26" s="127"/>
+      <c r="AD26" s="127"/>
+      <c r="AE26" s="128"/>
+      <c r="AF26" s="123"/>
+      <c r="AG26" s="124"/>
+      <c r="AH26" s="124"/>
+      <c r="AI26" s="125"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="76"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="129"/>
-      <c r="AF27" s="124"/>
-      <c r="AG27" s="125"/>
-      <c r="AH27" s="125"/>
-      <c r="AI27" s="126"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="124"/>
+      <c r="O27" s="124"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="127"/>
+      <c r="T27" s="127"/>
+      <c r="U27" s="127"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="127"/>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="127"/>
+      <c r="AC27" s="127"/>
+      <c r="AD27" s="127"/>
+      <c r="AE27" s="128"/>
+      <c r="AF27" s="123"/>
+      <c r="AG27" s="124"/>
+      <c r="AH27" s="124"/>
+      <c r="AI27" s="125"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="76"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="128"/>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="128"/>
-      <c r="AE28" s="129"/>
-      <c r="AF28" s="124"/>
-      <c r="AG28" s="125"/>
-      <c r="AH28" s="125"/>
-      <c r="AI28" s="126"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="124"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="124"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="127"/>
+      <c r="T28" s="127"/>
+      <c r="U28" s="127"/>
+      <c r="V28" s="127"/>
+      <c r="W28" s="127"/>
+      <c r="X28" s="127"/>
+      <c r="Y28" s="127"/>
+      <c r="Z28" s="127"/>
+      <c r="AA28" s="127"/>
+      <c r="AB28" s="127"/>
+      <c r="AC28" s="127"/>
+      <c r="AD28" s="127"/>
+      <c r="AE28" s="128"/>
+      <c r="AF28" s="123"/>
+      <c r="AG28" s="124"/>
+      <c r="AH28" s="124"/>
+      <c r="AI28" s="125"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="76"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="128"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="128"/>
-      <c r="AE29" s="129"/>
-      <c r="AF29" s="124"/>
-      <c r="AG29" s="125"/>
-      <c r="AH29" s="125"/>
-      <c r="AI29" s="126"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="124"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="127"/>
+      <c r="U29" s="127"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="127"/>
+      <c r="X29" s="127"/>
+      <c r="Y29" s="127"/>
+      <c r="Z29" s="127"/>
+      <c r="AA29" s="127"/>
+      <c r="AB29" s="127"/>
+      <c r="AC29" s="127"/>
+      <c r="AD29" s="127"/>
+      <c r="AE29" s="128"/>
+      <c r="AF29" s="123"/>
+      <c r="AG29" s="124"/>
+      <c r="AH29" s="124"/>
+      <c r="AI29" s="125"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="76"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="128"/>
-      <c r="S30" s="128"/>
-      <c r="T30" s="128"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="129"/>
-      <c r="AF30" s="124"/>
-      <c r="AG30" s="125"/>
-      <c r="AH30" s="125"/>
-      <c r="AI30" s="126"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="125"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="127"/>
+      <c r="T30" s="127"/>
+      <c r="U30" s="127"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="127"/>
+      <c r="X30" s="127"/>
+      <c r="Y30" s="127"/>
+      <c r="Z30" s="127"/>
+      <c r="AA30" s="127"/>
+      <c r="AB30" s="127"/>
+      <c r="AC30" s="127"/>
+      <c r="AD30" s="127"/>
+      <c r="AE30" s="128"/>
+      <c r="AF30" s="123"/>
+      <c r="AG30" s="124"/>
+      <c r="AH30" s="124"/>
+      <c r="AI30" s="125"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="76"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="129"/>
-      <c r="AF31" s="124"/>
-      <c r="AG31" s="125"/>
-      <c r="AH31" s="125"/>
-      <c r="AI31" s="126"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="124"/>
+      <c r="M31" s="124"/>
+      <c r="N31" s="124"/>
+      <c r="O31" s="124"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="127"/>
+      <c r="U31" s="127"/>
+      <c r="V31" s="127"/>
+      <c r="W31" s="127"/>
+      <c r="X31" s="127"/>
+      <c r="Y31" s="127"/>
+      <c r="Z31" s="127"/>
+      <c r="AA31" s="127"/>
+      <c r="AB31" s="127"/>
+      <c r="AC31" s="127"/>
+      <c r="AD31" s="127"/>
+      <c r="AE31" s="128"/>
+      <c r="AF31" s="123"/>
+      <c r="AG31" s="124"/>
+      <c r="AH31" s="124"/>
+      <c r="AI31" s="125"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="76"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="128"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="128"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="128"/>
-      <c r="AE32" s="129"/>
-      <c r="AF32" s="124"/>
-      <c r="AG32" s="125"/>
-      <c r="AH32" s="125"/>
-      <c r="AI32" s="126"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="124"/>
+      <c r="M32" s="124"/>
+      <c r="N32" s="124"/>
+      <c r="O32" s="124"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="126"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="127"/>
+      <c r="T32" s="127"/>
+      <c r="U32" s="127"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="Z32" s="127"/>
+      <c r="AA32" s="127"/>
+      <c r="AB32" s="127"/>
+      <c r="AC32" s="127"/>
+      <c r="AD32" s="127"/>
+      <c r="AE32" s="128"/>
+      <c r="AF32" s="123"/>
+      <c r="AG32" s="124"/>
+      <c r="AH32" s="124"/>
+      <c r="AI32" s="125"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="76"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="125"/>
-      <c r="N33" s="125"/>
-      <c r="O33" s="125"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="129"/>
-      <c r="AF33" s="124"/>
-      <c r="AG33" s="125"/>
-      <c r="AH33" s="125"/>
-      <c r="AI33" s="126"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="124"/>
+      <c r="N33" s="124"/>
+      <c r="O33" s="124"/>
+      <c r="P33" s="125"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="127"/>
+      <c r="T33" s="127"/>
+      <c r="U33" s="127"/>
+      <c r="V33" s="127"/>
+      <c r="W33" s="127"/>
+      <c r="X33" s="127"/>
+      <c r="Y33" s="127"/>
+      <c r="Z33" s="127"/>
+      <c r="AA33" s="127"/>
+      <c r="AB33" s="127"/>
+      <c r="AC33" s="127"/>
+      <c r="AD33" s="127"/>
+      <c r="AE33" s="128"/>
+      <c r="AF33" s="123"/>
+      <c r="AG33" s="124"/>
+      <c r="AH33" s="124"/>
+      <c r="AI33" s="125"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="21"/>
@@ -8280,157 +8329,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="155" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="197" t="s">
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="200" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="185" t="str">
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="186"/>
-      <c r="U1" s="186"/>
-      <c r="V1" s="186"/>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="194" t="s">
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="196"/>
-      <c r="AC1" s="145" t="str">
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="182">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="185">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="184"/>
+      <c r="AH1" s="186"/>
+      <c r="AI1" s="187"/>
     </row>
     <row r="2" spans="1:35" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="155" t="str">
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="190"/>
-      <c r="AA2" s="194" t="s">
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="145" t="str">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="182">
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="185">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44704</v>
-      </c>
-      <c r="AH2" s="183"/>
-      <c r="AI2" s="184"/>
+        <v>44845</v>
+      </c>
+      <c r="AH2" s="186"/>
+      <c r="AI2" s="187"/>
     </row>
     <row r="3" spans="1:35" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="155" t="str">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="194"/>
-      <c r="AB3" s="196"/>
-      <c r="AC3" s="145" t="str">
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="196"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="182" t="str">
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="185" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="184"/>
+      <c r="AH3" s="186"/>
+      <c r="AI3" s="187"/>
     </row>
     <row r="4" spans="1:35" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
@@ -9757,157 +9806,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="155" t="str">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="164" t="s">
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="185" t="str">
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="186"/>
-      <c r="U1" s="186"/>
-      <c r="V1" s="186"/>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="145" t="str">
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="217">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="220">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="218"/>
-      <c r="AI1" s="219"/>
+      <c r="AH1" s="221"/>
+      <c r="AI1" s="222"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="155" t="str">
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="190"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="145" t="str">
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="217">
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="220">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44704</v>
-      </c>
-      <c r="AH2" s="218"/>
-      <c r="AI2" s="219"/>
+        <v>44845</v>
+      </c>
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="222"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="155" t="str">
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="145" t="str">
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="196"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="166"/>
+      <c r="AC3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="217" t="str">
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="220" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="218"/>
-      <c r="AI3" s="219"/>
+      <c r="AH3" s="221"/>
+      <c r="AI3" s="222"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
@@ -10063,94 +10112,94 @@
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="209" t="s">
+      <c r="D8" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="216" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="220"/>
-      <c r="J8" s="220"/>
-      <c r="K8" s="220"/>
-      <c r="L8" s="220"/>
-      <c r="M8" s="220"/>
-      <c r="N8" s="220"/>
-      <c r="O8" s="220"/>
-      <c r="P8" s="220"/>
-      <c r="Q8" s="220"/>
-      <c r="R8" s="220"/>
-      <c r="S8" s="220"/>
-      <c r="T8" s="220"/>
-      <c r="U8" s="220"/>
-      <c r="V8" s="220"/>
-      <c r="W8" s="220"/>
-      <c r="X8" s="220"/>
-      <c r="Y8" s="220"/>
-      <c r="Z8" s="220"/>
-      <c r="AA8" s="220"/>
-      <c r="AB8" s="220"/>
-      <c r="AC8" s="220"/>
-      <c r="AD8" s="220"/>
-      <c r="AE8" s="220"/>
-      <c r="AF8" s="220"/>
-      <c r="AG8" s="220"/>
-      <c r="AH8" s="220"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="219" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="223"/>
+      <c r="J8" s="223"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="223"/>
+      <c r="N8" s="223"/>
+      <c r="O8" s="223"/>
+      <c r="P8" s="223"/>
+      <c r="Q8" s="223"/>
+      <c r="R8" s="223"/>
+      <c r="S8" s="223"/>
+      <c r="T8" s="223"/>
+      <c r="U8" s="223"/>
+      <c r="V8" s="223"/>
+      <c r="W8" s="223"/>
+      <c r="X8" s="223"/>
+      <c r="Y8" s="223"/>
+      <c r="Z8" s="223"/>
+      <c r="AA8" s="223"/>
+      <c r="AB8" s="223"/>
+      <c r="AC8" s="223"/>
+      <c r="AD8" s="223"/>
+      <c r="AE8" s="223"/>
+      <c r="AF8" s="223"/>
+      <c r="AG8" s="223"/>
+      <c r="AH8" s="223"/>
     </row>
     <row r="9" spans="1:35" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="209" t="s">
+      <c r="D9" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="210"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="215" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="215"/>
-      <c r="J9" s="215"/>
-      <c r="K9" s="215"/>
-      <c r="L9" s="215"/>
-      <c r="M9" s="215"/>
-      <c r="N9" s="215"/>
-      <c r="O9" s="215"/>
-      <c r="P9" s="215"/>
-      <c r="Q9" s="215"/>
-      <c r="R9" s="215"/>
-      <c r="S9" s="215"/>
-      <c r="T9" s="215"/>
-      <c r="U9" s="215"/>
-      <c r="V9" s="215"/>
-      <c r="W9" s="215"/>
-      <c r="X9" s="215"/>
-      <c r="Y9" s="215"/>
-      <c r="Z9" s="215"/>
-      <c r="AA9" s="215"/>
-      <c r="AB9" s="215"/>
-      <c r="AC9" s="215"/>
-      <c r="AD9" s="215"/>
-      <c r="AE9" s="215"/>
-      <c r="AF9" s="215"/>
-      <c r="AG9" s="215"/>
-      <c r="AH9" s="215"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="218" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="218"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="218"/>
+      <c r="N9" s="218"/>
+      <c r="O9" s="218"/>
+      <c r="P9" s="218"/>
+      <c r="Q9" s="218"/>
+      <c r="R9" s="218"/>
+      <c r="S9" s="218"/>
+      <c r="T9" s="218"/>
+      <c r="U9" s="218"/>
+      <c r="V9" s="218"/>
+      <c r="W9" s="218"/>
+      <c r="X9" s="218"/>
+      <c r="Y9" s="218"/>
+      <c r="Z9" s="218"/>
+      <c r="AA9" s="218"/>
+      <c r="AB9" s="218"/>
+      <c r="AC9" s="218"/>
+      <c r="AD9" s="218"/>
+      <c r="AE9" s="218"/>
+      <c r="AF9" s="218"/>
+      <c r="AG9" s="218"/>
+      <c r="AH9" s="218"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
-      <c r="D10" s="206" t="s">
+      <c r="D10" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="207"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="208"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="211"/>
       <c r="H10" s="65" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I10" s="66"/>
       <c r="J10" s="66"/>
@@ -10183,201 +10232,201 @@
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
-      <c r="D11" s="209" t="s">
+      <c r="D11" s="212" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="210"/>
-      <c r="F11" s="210"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="216" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="220"/>
-      <c r="J11" s="220"/>
-      <c r="K11" s="220"/>
-      <c r="L11" s="220"/>
-      <c r="M11" s="220"/>
-      <c r="N11" s="220"/>
-      <c r="O11" s="220"/>
-      <c r="P11" s="220"/>
-      <c r="Q11" s="220"/>
-      <c r="R11" s="220"/>
-      <c r="S11" s="220"/>
-      <c r="T11" s="220"/>
-      <c r="U11" s="220"/>
-      <c r="V11" s="220"/>
-      <c r="W11" s="220"/>
-      <c r="X11" s="220"/>
-      <c r="Y11" s="220"/>
-      <c r="Z11" s="220"/>
-      <c r="AA11" s="220"/>
-      <c r="AB11" s="220"/>
-      <c r="AC11" s="220"/>
-      <c r="AD11" s="220"/>
-      <c r="AE11" s="220"/>
-      <c r="AF11" s="220"/>
-      <c r="AG11" s="220"/>
-      <c r="AH11" s="220"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="219" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="223"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="223"/>
+      <c r="L11" s="223"/>
+      <c r="M11" s="223"/>
+      <c r="N11" s="223"/>
+      <c r="O11" s="223"/>
+      <c r="P11" s="223"/>
+      <c r="Q11" s="223"/>
+      <c r="R11" s="223"/>
+      <c r="S11" s="223"/>
+      <c r="T11" s="223"/>
+      <c r="U11" s="223"/>
+      <c r="V11" s="223"/>
+      <c r="W11" s="223"/>
+      <c r="X11" s="223"/>
+      <c r="Y11" s="223"/>
+      <c r="Z11" s="223"/>
+      <c r="AA11" s="223"/>
+      <c r="AB11" s="223"/>
+      <c r="AC11" s="223"/>
+      <c r="AD11" s="223"/>
+      <c r="AE11" s="223"/>
+      <c r="AF11" s="223"/>
+      <c r="AG11" s="223"/>
+      <c r="AH11" s="223"/>
     </row>
     <row r="12" spans="1:35" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
-      <c r="D12" s="209" t="s">
+      <c r="D12" s="212" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="210"/>
-      <c r="F12" s="210"/>
-      <c r="G12" s="211"/>
-      <c r="H12" s="215" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="215"/>
-      <c r="J12" s="215"/>
-      <c r="K12" s="215"/>
-      <c r="L12" s="215"/>
-      <c r="M12" s="215"/>
-      <c r="N12" s="215"/>
-      <c r="O12" s="215"/>
-      <c r="P12" s="215"/>
-      <c r="Q12" s="215"/>
-      <c r="R12" s="215"/>
-      <c r="S12" s="215"/>
-      <c r="T12" s="215"/>
-      <c r="U12" s="215"/>
-      <c r="V12" s="215"/>
-      <c r="W12" s="215"/>
-      <c r="X12" s="215"/>
-      <c r="Y12" s="215"/>
-      <c r="Z12" s="215"/>
-      <c r="AA12" s="215"/>
-      <c r="AB12" s="215"/>
-      <c r="AC12" s="215"/>
-      <c r="AD12" s="215"/>
-      <c r="AE12" s="215"/>
-      <c r="AF12" s="215"/>
-      <c r="AG12" s="215"/>
-      <c r="AH12" s="215"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="218" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="218"/>
+      <c r="J12" s="218"/>
+      <c r="K12" s="218"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="218"/>
+      <c r="N12" s="218"/>
+      <c r="O12" s="218"/>
+      <c r="P12" s="218"/>
+      <c r="Q12" s="218"/>
+      <c r="R12" s="218"/>
+      <c r="S12" s="218"/>
+      <c r="T12" s="218"/>
+      <c r="U12" s="218"/>
+      <c r="V12" s="218"/>
+      <c r="W12" s="218"/>
+      <c r="X12" s="218"/>
+      <c r="Y12" s="218"/>
+      <c r="Z12" s="218"/>
+      <c r="AA12" s="218"/>
+      <c r="AB12" s="218"/>
+      <c r="AC12" s="218"/>
+      <c r="AD12" s="218"/>
+      <c r="AE12" s="218"/>
+      <c r="AF12" s="218"/>
+      <c r="AG12" s="218"/>
+      <c r="AH12" s="218"/>
     </row>
     <row r="13" spans="1:35" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="209" t="s">
+      <c r="D13" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="210"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="216" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="216"/>
-      <c r="J13" s="216"/>
-      <c r="K13" s="216"/>
-      <c r="L13" s="216"/>
-      <c r="M13" s="216"/>
-      <c r="N13" s="216"/>
-      <c r="O13" s="216"/>
-      <c r="P13" s="216"/>
-      <c r="Q13" s="216"/>
-      <c r="R13" s="216"/>
-      <c r="S13" s="216"/>
-      <c r="T13" s="216"/>
-      <c r="U13" s="216"/>
-      <c r="V13" s="216"/>
-      <c r="W13" s="216"/>
-      <c r="X13" s="216"/>
-      <c r="Y13" s="216"/>
-      <c r="Z13" s="216"/>
-      <c r="AA13" s="216"/>
-      <c r="AB13" s="216"/>
-      <c r="AC13" s="216"/>
-      <c r="AD13" s="216"/>
-      <c r="AE13" s="216"/>
-      <c r="AF13" s="216"/>
-      <c r="AG13" s="216"/>
-      <c r="AH13" s="216"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="219" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="219"/>
+      <c r="J13" s="219"/>
+      <c r="K13" s="219"/>
+      <c r="L13" s="219"/>
+      <c r="M13" s="219"/>
+      <c r="N13" s="219"/>
+      <c r="O13" s="219"/>
+      <c r="P13" s="219"/>
+      <c r="Q13" s="219"/>
+      <c r="R13" s="219"/>
+      <c r="S13" s="219"/>
+      <c r="T13" s="219"/>
+      <c r="U13" s="219"/>
+      <c r="V13" s="219"/>
+      <c r="W13" s="219"/>
+      <c r="X13" s="219"/>
+      <c r="Y13" s="219"/>
+      <c r="Z13" s="219"/>
+      <c r="AA13" s="219"/>
+      <c r="AB13" s="219"/>
+      <c r="AC13" s="219"/>
+      <c r="AD13" s="219"/>
+      <c r="AE13" s="219"/>
+      <c r="AF13" s="219"/>
+      <c r="AG13" s="219"/>
+      <c r="AH13" s="219"/>
     </row>
     <row r="14" spans="1:35" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="209" t="s">
+      <c r="D14" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="210"/>
-      <c r="F14" s="210"/>
-      <c r="G14" s="211"/>
-      <c r="H14" s="215" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="215"/>
-      <c r="J14" s="215"/>
-      <c r="K14" s="215"/>
-      <c r="L14" s="215"/>
-      <c r="M14" s="215"/>
-      <c r="N14" s="215"/>
-      <c r="O14" s="215"/>
-      <c r="P14" s="215"/>
-      <c r="Q14" s="215"/>
-      <c r="R14" s="215"/>
-      <c r="S14" s="215"/>
-      <c r="T14" s="215"/>
-      <c r="U14" s="215"/>
-      <c r="V14" s="215"/>
-      <c r="W14" s="215"/>
-      <c r="X14" s="215"/>
-      <c r="Y14" s="215"/>
-      <c r="Z14" s="215"/>
-      <c r="AA14" s="215"/>
-      <c r="AB14" s="215"/>
-      <c r="AC14" s="215"/>
-      <c r="AD14" s="215"/>
-      <c r="AE14" s="215"/>
-      <c r="AF14" s="215"/>
-      <c r="AG14" s="215"/>
-      <c r="AH14" s="215"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="218" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="218"/>
+      <c r="J14" s="218"/>
+      <c r="K14" s="218"/>
+      <c r="L14" s="218"/>
+      <c r="M14" s="218"/>
+      <c r="N14" s="218"/>
+      <c r="O14" s="218"/>
+      <c r="P14" s="218"/>
+      <c r="Q14" s="218"/>
+      <c r="R14" s="218"/>
+      <c r="S14" s="218"/>
+      <c r="T14" s="218"/>
+      <c r="U14" s="218"/>
+      <c r="V14" s="218"/>
+      <c r="W14" s="218"/>
+      <c r="X14" s="218"/>
+      <c r="Y14" s="218"/>
+      <c r="Z14" s="218"/>
+      <c r="AA14" s="218"/>
+      <c r="AB14" s="218"/>
+      <c r="AC14" s="218"/>
+      <c r="AD14" s="218"/>
+      <c r="AE14" s="218"/>
+      <c r="AF14" s="218"/>
+      <c r="AG14" s="218"/>
+      <c r="AH14" s="218"/>
     </row>
     <row r="15" spans="1:35" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="209" t="s">
+      <c r="D15" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="210"/>
-      <c r="F15" s="210"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="96"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="95"/>
     </row>
     <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
@@ -10496,30 +10545,30 @@
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="214"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="214"/>
-      <c r="L19" s="214"/>
-      <c r="M19" s="214"/>
-      <c r="N19" s="214"/>
-      <c r="O19" s="212"/>
-      <c r="P19" s="213"/>
-      <c r="Q19" s="213"/>
-      <c r="R19" s="213"/>
-      <c r="S19" s="213"/>
-      <c r="T19" s="213"/>
-      <c r="U19" s="213"/>
-      <c r="V19" s="213"/>
-      <c r="W19" s="213"/>
-      <c r="X19" s="213"/>
-      <c r="Y19" s="213"/>
-      <c r="Z19" s="213"/>
-      <c r="AA19" s="213"/>
-      <c r="AB19" s="213"/>
-      <c r="AC19" s="213"/>
-      <c r="AD19" s="213"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="217"/>
+      <c r="L19" s="217"/>
+      <c r="M19" s="217"/>
+      <c r="N19" s="217"/>
+      <c r="O19" s="215"/>
+      <c r="P19" s="216"/>
+      <c r="Q19" s="216"/>
+      <c r="R19" s="216"/>
+      <c r="S19" s="216"/>
+      <c r="T19" s="216"/>
+      <c r="U19" s="216"/>
+      <c r="V19" s="216"/>
+      <c r="W19" s="216"/>
+      <c r="X19" s="216"/>
+      <c r="Y19" s="216"/>
+      <c r="Z19" s="216"/>
+      <c r="AA19" s="216"/>
+      <c r="AB19" s="216"/>
+      <c r="AC19" s="216"/>
+      <c r="AD19" s="216"/>
       <c r="AE19" s="28"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11032,157 +11081,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="155" t="str">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="164" t="s">
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="185" t="str">
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="186"/>
-      <c r="U1" s="186"/>
-      <c r="V1" s="186"/>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="145" t="str">
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="217">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="220">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="218"/>
-      <c r="AI1" s="219"/>
+      <c r="AH1" s="221"/>
+      <c r="AI1" s="222"/>
     </row>
     <row r="2" spans="1:35" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="155" t="str">
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="190"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="145" t="str">
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="217">
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="220">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44704</v>
-      </c>
-      <c r="AH2" s="218"/>
-      <c r="AI2" s="219"/>
+        <v>44845</v>
+      </c>
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="222"/>
     </row>
     <row r="3" spans="1:35" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="155" t="str">
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="145" t="str">
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="196"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="166"/>
+      <c r="AC3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="217" t="str">
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="220" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="218"/>
-      <c r="AI3" s="219"/>
+      <c r="AH3" s="221"/>
+      <c r="AI3" s="222"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11192,7 +11241,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="J13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -11231,7 +11280,7 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL71"/>
+  <dimension ref="A1:AL70"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -11243,163 +11292,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="155" t="str">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="164" t="s">
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="185" t="str">
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="186"/>
-      <c r="U1" s="186"/>
-      <c r="V1" s="186"/>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="145" t="str">
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="217">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="220">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="218"/>
-      <c r="AI1" s="219"/>
+      <c r="AH1" s="221"/>
+      <c r="AI1" s="222"/>
       <c r="AJ1" s="12"/>
       <c r="AK1" s="12"/>
       <c r="AL1" s="13"/>
     </row>
     <row r="2" spans="1:38" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="155" t="str">
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="190"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="145" t="str">
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="217">
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="220">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44704</v>
-      </c>
-      <c r="AH2" s="218"/>
-      <c r="AI2" s="219"/>
+        <v>44845</v>
+      </c>
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="222"/>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
     </row>
     <row r="3" spans="1:38" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="155" t="str">
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="145" t="str">
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="196"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="166"/>
+      <c r="AC3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="217" t="str">
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="220" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="218"/>
-      <c r="AI3" s="219"/>
+      <c r="AH3" s="221"/>
+      <c r="AI3" s="222"/>
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -11407,7 +11456,7 @@
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -11517,65 +11566,65 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="256" t="s">
+      <c r="D8" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="258" t="s">
+      <c r="E8" s="253" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="259"/>
-      <c r="G8" s="259"/>
-      <c r="H8" s="259"/>
-      <c r="I8" s="259"/>
-      <c r="J8" s="260"/>
-      <c r="K8" s="264" t="s">
+      <c r="F8" s="254"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="254"/>
+      <c r="I8" s="254"/>
+      <c r="J8" s="255"/>
+      <c r="K8" s="259" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="259"/>
-      <c r="M8" s="259"/>
-      <c r="N8" s="260"/>
-      <c r="O8" s="271" t="s">
+      <c r="L8" s="254"/>
+      <c r="M8" s="254"/>
+      <c r="N8" s="255"/>
+      <c r="O8" s="260" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="253" t="s">
+      <c r="P8" s="263" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="254"/>
-      <c r="R8" s="254"/>
-      <c r="S8" s="254"/>
-      <c r="T8" s="254"/>
-      <c r="U8" s="255"/>
-      <c r="V8" s="273" t="s">
+      <c r="Q8" s="264"/>
+      <c r="R8" s="264"/>
+      <c r="S8" s="264"/>
+      <c r="T8" s="264"/>
+      <c r="U8" s="265"/>
+      <c r="V8" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="W8" s="273"/>
-      <c r="X8" s="273"/>
-      <c r="Y8" s="273"/>
-      <c r="Z8" s="273"/>
-      <c r="AA8" s="273"/>
-      <c r="AB8" s="273"/>
-      <c r="AC8" s="273"/>
-      <c r="AD8" s="273"/>
-      <c r="AE8" s="273"/>
-      <c r="AF8" s="273"/>
-      <c r="AG8" s="273"/>
-      <c r="AH8" s="273"/>
+      <c r="W8" s="262"/>
+      <c r="X8" s="262"/>
+      <c r="Y8" s="262"/>
+      <c r="Z8" s="262"/>
+      <c r="AA8" s="262"/>
+      <c r="AB8" s="262"/>
+      <c r="AC8" s="262"/>
+      <c r="AD8" s="262"/>
+      <c r="AE8" s="262"/>
+      <c r="AF8" s="262"/>
+      <c r="AG8" s="262"/>
+      <c r="AH8" s="262"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="257"/>
-      <c r="E9" s="261"/>
-      <c r="F9" s="262"/>
-      <c r="G9" s="262"/>
-      <c r="H9" s="262"/>
-      <c r="I9" s="262"/>
-      <c r="J9" s="263"/>
-      <c r="K9" s="261"/>
-      <c r="L9" s="262"/>
-      <c r="M9" s="262"/>
-      <c r="N9" s="263"/>
-      <c r="O9" s="272"/>
+      <c r="D9" s="252"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="257"/>
+      <c r="G9" s="257"/>
+      <c r="H9" s="257"/>
+      <c r="I9" s="257"/>
+      <c r="J9" s="258"/>
+      <c r="K9" s="256"/>
+      <c r="L9" s="257"/>
+      <c r="M9" s="257"/>
+      <c r="N9" s="258"/>
+      <c r="O9" s="261"/>
       <c r="P9" s="55" t="s">
         <v>45</v>
       </c>
@@ -11588,23 +11637,23 @@
       <c r="S9" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="251" t="s">
+      <c r="T9" s="249" t="s">
         <v>41</v>
       </c>
-      <c r="U9" s="252"/>
-      <c r="V9" s="273"/>
-      <c r="W9" s="273"/>
-      <c r="X9" s="273"/>
-      <c r="Y9" s="273"/>
-      <c r="Z9" s="273"/>
-      <c r="AA9" s="273"/>
-      <c r="AB9" s="273"/>
-      <c r="AC9" s="273"/>
-      <c r="AD9" s="273"/>
-      <c r="AE9" s="273"/>
-      <c r="AF9" s="273"/>
-      <c r="AG9" s="273"/>
-      <c r="AH9" s="273"/>
+      <c r="U9" s="250"/>
+      <c r="V9" s="262"/>
+      <c r="W9" s="262"/>
+      <c r="X9" s="262"/>
+      <c r="Y9" s="262"/>
+      <c r="Z9" s="262"/>
+      <c r="AA9" s="262"/>
+      <c r="AB9" s="262"/>
+      <c r="AC9" s="262"/>
+      <c r="AD9" s="262"/>
+      <c r="AE9" s="262"/>
+      <c r="AF9" s="262"/>
+      <c r="AG9" s="262"/>
+      <c r="AH9" s="262"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="27"/>
@@ -11612,52 +11661,52 @@
       <c r="D10" s="72">
         <v>1</v>
       </c>
-      <c r="E10" s="230" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="127" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="129"/>
+      <c r="E10" s="132" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="128"/>
       <c r="O10" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="P10" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="P10" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q10" s="54" t="s">
-        <v>81</v>
-      </c>
       <c r="R10" s="54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S10" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="T10" s="249" t="s">
-        <v>81</v>
-      </c>
-      <c r="U10" s="250"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="128"/>
-      <c r="AG10" s="128"/>
-      <c r="AH10" s="129"/>
+        <v>79</v>
+      </c>
+      <c r="T10" s="247" t="s">
+        <v>79</v>
+      </c>
+      <c r="U10" s="248"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="127"/>
+      <c r="AC10" s="127"/>
+      <c r="AD10" s="127"/>
+      <c r="AE10" s="127"/>
+      <c r="AF10" s="127"/>
+      <c r="AG10" s="127"/>
+      <c r="AH10" s="128"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B11" s="27"/>
@@ -11665,144 +11714,128 @@
       <c r="D11" s="72">
         <v>2</v>
       </c>
-      <c r="E11" s="230" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="127" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="129"/>
-      <c r="O11" s="74" t="s">
+      <c r="E11" s="132" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="54" t="s">
-        <v>81</v>
-      </c>
       <c r="Q11" s="54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R11" s="54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S11" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="T11" s="249" t="s">
-        <v>81</v>
-      </c>
-      <c r="U11" s="250"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="128"/>
-      <c r="AF11" s="128"/>
-      <c r="AG11" s="128"/>
-      <c r="AH11" s="129"/>
+        <v>79</v>
+      </c>
+      <c r="T11" s="247" t="s">
+        <v>79</v>
+      </c>
+      <c r="U11" s="248"/>
+      <c r="V11" s="126"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="127"/>
+      <c r="AE11" s="127"/>
+      <c r="AF11" s="127"/>
+      <c r="AG11" s="127"/>
+      <c r="AH11" s="128"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
-      <c r="D12" s="72">
-        <v>3</v>
-      </c>
-      <c r="E12" s="230" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="127" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q12" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="R12" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="S12" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="T12" s="249" t="s">
-        <v>81</v>
-      </c>
-      <c r="U12" s="250"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
-      <c r="AA12" s="128"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="128"/>
-      <c r="AD12" s="128"/>
-      <c r="AE12" s="128"/>
-      <c r="AF12" s="128"/>
-      <c r="AG12" s="128"/>
-      <c r="AH12" s="129"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="53"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="34"/>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -11836,9 +11869,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B15" s="27"/>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
+      <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -11871,227 +11902,227 @@
       <c r="AG15" s="27"/>
       <c r="AH15" s="27"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-    </row>
-    <row r="17" spans="2:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="291" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="292"/>
+      <c r="G16" s="293"/>
+      <c r="H16" s="288" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="289"/>
+      <c r="J16" s="289"/>
+      <c r="K16" s="289"/>
+      <c r="L16" s="289"/>
+      <c r="M16" s="289"/>
+      <c r="N16" s="289"/>
+      <c r="O16" s="289"/>
+      <c r="P16" s="289"/>
+      <c r="Q16" s="289"/>
+      <c r="R16" s="289"/>
+      <c r="S16" s="289"/>
+      <c r="T16" s="289"/>
+      <c r="U16" s="289"/>
+      <c r="V16" s="289"/>
+      <c r="W16" s="289"/>
+      <c r="X16" s="289"/>
+      <c r="Y16" s="289"/>
+      <c r="Z16" s="289"/>
+      <c r="AA16" s="289"/>
+      <c r="AB16" s="289"/>
+      <c r="AC16" s="289"/>
+      <c r="AD16" s="289"/>
+      <c r="AE16" s="289"/>
+      <c r="AF16" s="289"/>
+      <c r="AG16" s="289"/>
+      <c r="AH16" s="290"/>
+    </row>
+    <row r="17" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="234" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="235"/>
-      <c r="G17" s="236"/>
-      <c r="H17" s="268" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="269"/>
-      <c r="J17" s="269"/>
-      <c r="K17" s="269"/>
-      <c r="L17" s="269"/>
-      <c r="M17" s="269"/>
-      <c r="N17" s="269"/>
-      <c r="O17" s="269"/>
-      <c r="P17" s="269"/>
-      <c r="Q17" s="269"/>
-      <c r="R17" s="269"/>
-      <c r="S17" s="269"/>
-      <c r="T17" s="269"/>
-      <c r="U17" s="269"/>
-      <c r="V17" s="269"/>
-      <c r="W17" s="269"/>
-      <c r="X17" s="269"/>
-      <c r="Y17" s="269"/>
-      <c r="Z17" s="269"/>
-      <c r="AA17" s="269"/>
-      <c r="AB17" s="269"/>
-      <c r="AC17" s="269"/>
-      <c r="AD17" s="269"/>
-      <c r="AE17" s="269"/>
-      <c r="AF17" s="269"/>
-      <c r="AG17" s="269"/>
-      <c r="AH17" s="270"/>
+      <c r="D17" s="72">
+        <v>1</v>
+      </c>
+      <c r="E17" s="132" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="132" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="127"/>
+      <c r="AF17" s="127"/>
+      <c r="AG17" s="127"/>
+      <c r="AH17" s="128"/>
     </row>
     <row r="18" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="27"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="27"/>
       <c r="D18" s="72">
-        <v>1</v>
-      </c>
-      <c r="E18" s="230" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="128"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="230" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="128"/>
-      <c r="N18" s="128"/>
-      <c r="O18" s="128"/>
-      <c r="P18" s="128"/>
-      <c r="Q18" s="128"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="128"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
-      <c r="AD18" s="128"/>
-      <c r="AE18" s="128"/>
-      <c r="AF18" s="128"/>
-      <c r="AG18" s="128"/>
-      <c r="AH18" s="129"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="132" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="127"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="132" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="127"/>
+      <c r="T18" s="127"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="127"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="127"/>
+      <c r="AC18" s="127"/>
+      <c r="AD18" s="127"/>
+      <c r="AE18" s="127"/>
+      <c r="AF18" s="127"/>
+      <c r="AG18" s="127"/>
+      <c r="AH18" s="128"/>
     </row>
     <row r="19" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
       <c r="C19" s="27"/>
       <c r="D19" s="72">
-        <v>2</v>
-      </c>
-      <c r="E19" s="230" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="230" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="128"/>
-      <c r="AH19" s="129"/>
-    </row>
-    <row r="20" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="E19" s="132" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="127"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="132" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="127"/>
+      <c r="O19" s="127"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="127"/>
+      <c r="U19" s="127"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="127"/>
+      <c r="AA19" s="127"/>
+      <c r="AB19" s="127"/>
+      <c r="AC19" s="127"/>
+      <c r="AD19" s="127"/>
+      <c r="AE19" s="127"/>
+      <c r="AF19" s="127"/>
+      <c r="AG19" s="127"/>
+      <c r="AH19" s="128"/>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="72">
-        <v>3</v>
-      </c>
-      <c r="E20" s="230" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="128"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="230" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="128"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="128"/>
-      <c r="N20" s="128"/>
-      <c r="O20" s="128"/>
-      <c r="P20" s="128"/>
-      <c r="Q20" s="128"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="128"/>
-      <c r="U20" s="128"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="128"/>
-      <c r="X20" s="128"/>
-      <c r="Y20" s="128"/>
-      <c r="Z20" s="128"/>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="128"/>
-      <c r="AD20" s="128"/>
-      <c r="AE20" s="128"/>
-      <c r="AF20" s="128"/>
-      <c r="AG20" s="128"/>
-      <c r="AH20" s="129"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B21" s="1"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
       <c r="W21" s="27"/>
       <c r="X21" s="27"/>
       <c r="Y21" s="27"/>
@@ -12107,45 +12138,47 @@
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
+      <c r="C22" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
-      <c r="C23" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="56"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="56" t="s">
+        <v>36</v>
+      </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
       <c r="G23" s="56"/>
@@ -12180,9 +12213,7 @@
     <row r="24" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="56" t="s">
-        <v>36</v>
-      </c>
+      <c r="D24" s="56"/>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
       <c r="G24" s="56"/>
@@ -12217,258 +12248,249 @@
     <row r="25" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B25" s="1"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
+      <c r="E25" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="W25" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="X25" s="100"/>
+      <c r="Y25" s="100"/>
+      <c r="Z25" s="100"/>
+      <c r="AA25" s="100"/>
+      <c r="AB25" s="102"/>
+      <c r="AC25" s="102"/>
+      <c r="AD25" s="103"/>
       <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B26" s="1"/>
-      <c r="C26" s="27"/>
-      <c r="E26" s="99" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="100" t="s">
-        <v>127</v>
-      </c>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="100" t="s">
-        <v>128</v>
-      </c>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="102"/>
-      <c r="V26" s="100" t="s">
+      <c r="AH25" s="77"/>
+    </row>
+    <row r="26" spans="2:34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="105"/>
+      <c r="E26" s="59">
+        <v>1</v>
+      </c>
+      <c r="F26" s="106" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="106" t="s">
+        <v>130</v>
+      </c>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="W26" s="100" t="s">
+      <c r="W26" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="101"/>
-      <c r="AB26" s="103"/>
-      <c r="AC26" s="103"/>
-      <c r="AD26" s="104"/>
-      <c r="AG26" s="23"/>
-      <c r="AH26" s="78"/>
-    </row>
-    <row r="27" spans="2:34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="106"/>
-      <c r="E27" s="59">
-        <v>1</v>
-      </c>
-      <c r="F27" s="107" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="107" t="s">
-        <v>132</v>
-      </c>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="108"/>
-      <c r="S27" s="108"/>
-      <c r="T27" s="108"/>
-      <c r="U27" s="109"/>
-      <c r="V27" s="107" t="s">
-        <v>131</v>
-      </c>
-      <c r="W27" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="X27" s="111"/>
-      <c r="Y27" s="111"/>
-      <c r="Z27" s="111"/>
-      <c r="AA27" s="111"/>
-      <c r="AB27" s="111"/>
-      <c r="AC27" s="112"/>
-      <c r="AD27" s="113"/>
-      <c r="AG27" s="114"/>
-      <c r="AH27" s="115"/>
-    </row>
-    <row r="28" spans="2:34" s="53" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="X26" s="110"/>
+      <c r="Y26" s="110"/>
+      <c r="Z26" s="110"/>
+      <c r="AA26" s="110"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="111"/>
+      <c r="AD26" s="112"/>
+      <c r="AG26" s="113"/>
+      <c r="AH26" s="114"/>
+    </row>
+    <row r="27" spans="2:34" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="N30" s="1"/>
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="C31"/>
-      <c r="D31" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
-      <c r="O32" s="105"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="105"/>
-      <c r="R32" s="105"/>
-      <c r="S32" s="105"/>
-      <c r="T32" s="105"/>
-      <c r="U32" s="105"/>
-      <c r="V32" s="105"/>
-      <c r="W32" s="105"/>
-      <c r="X32" s="105"/>
-      <c r="Y32" s="105"/>
-      <c r="Z32" s="105"/>
-      <c r="AA32" s="105"/>
-      <c r="AB32" s="105"/>
-      <c r="AC32" s="105"/>
-      <c r="AD32" s="105"/>
-    </row>
-    <row r="33" spans="1:35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E33" t="s">
-        <v>137</v>
-      </c>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="104"/>
+      <c r="Y31" s="104"/>
+      <c r="Z31" s="104"/>
+      <c r="AA31" s="104"/>
+      <c r="AB31" s="104"/>
+      <c r="AC31" s="104"/>
+      <c r="AD31" s="104"/>
+    </row>
+    <row r="32" spans="2:34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="96"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="96"/>
+      <c r="X33" s="96"/>
+      <c r="Y33" s="96"/>
+      <c r="Z33" s="96"/>
+      <c r="AA33" s="96"/>
+      <c r="AB33" s="96"/>
+      <c r="AC33" s="96"/>
+      <c r="AD33" s="96"/>
     </row>
     <row r="34" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="97"/>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="97"/>
-      <c r="S34" s="97"/>
-      <c r="T34" s="97"/>
-      <c r="U34" s="97"/>
-      <c r="V34" s="97"/>
-      <c r="W34" s="97"/>
-      <c r="X34" s="97"/>
-      <c r="Y34" s="97"/>
-      <c r="Z34" s="97"/>
-      <c r="AA34" s="97"/>
-      <c r="AB34" s="97"/>
-      <c r="AC34" s="97"/>
-      <c r="AD34" s="97"/>
-    </row>
-    <row r="35" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="97"/>
-      <c r="R35" s="97"/>
-      <c r="S35" s="97"/>
-      <c r="T35" s="97"/>
-      <c r="U35" s="97"/>
-      <c r="V35" s="97"/>
-      <c r="W35" s="97"/>
-      <c r="X35" s="97"/>
-      <c r="Y35" s="97"/>
-      <c r="Z35" s="97"/>
-      <c r="AA35" s="97"/>
-      <c r="AB35" s="97"/>
-      <c r="AC35" s="97"/>
-      <c r="AD35" s="97"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="D36" t="s">
-        <v>116</v>
-      </c>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="96"/>
+      <c r="Q34" s="96"/>
+      <c r="R34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="96"/>
+      <c r="V34" s="96"/>
+      <c r="W34" s="96"/>
+      <c r="X34" s="96"/>
+      <c r="Y34" s="96"/>
+      <c r="Z34" s="96"/>
+      <c r="AA34" s="96"/>
+      <c r="AB34" s="96"/>
+      <c r="AC34" s="96"/>
+      <c r="AD34" s="96"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="D35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="E37" s="224" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="225"/>
+      <c r="G37" s="225"/>
+      <c r="H37" s="225"/>
+      <c r="I37" s="225"/>
+      <c r="J37" s="225"/>
+      <c r="K37" s="225"/>
+      <c r="L37" s="225"/>
+      <c r="M37" s="225"/>
+      <c r="N37" s="226"/>
+      <c r="O37" s="270" t="s">
+        <v>91</v>
+      </c>
+      <c r="P37" s="271"/>
+      <c r="Q37" s="271"/>
+      <c r="R37" s="271"/>
+      <c r="S37" s="271"/>
+      <c r="T37" s="271"/>
+      <c r="U37" s="271"/>
+      <c r="V37" s="271"/>
+      <c r="W37" s="271"/>
+      <c r="X37" s="272"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="E38" s="246" t="s">
+      <c r="E38" s="273" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="247"/>
-      <c r="G38" s="247"/>
-      <c r="H38" s="247"/>
-      <c r="I38" s="247"/>
-      <c r="J38" s="247"/>
-      <c r="K38" s="247"/>
-      <c r="L38" s="247"/>
-      <c r="M38" s="247"/>
-      <c r="N38" s="248"/>
+      <c r="F38" s="274"/>
+      <c r="G38" s="274"/>
+      <c r="H38" s="274"/>
+      <c r="I38" s="274"/>
+      <c r="J38" s="274"/>
+      <c r="K38" s="274"/>
+      <c r="L38" s="274"/>
+      <c r="M38" s="274"/>
+      <c r="N38" s="275"/>
       <c r="O38" s="282" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="P38" s="283"/>
       <c r="Q38" s="283"/>
@@ -12481,344 +12503,352 @@
       <c r="X38" s="284"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="E39" s="285" t="s">
+      <c r="E39" s="276"/>
+      <c r="F39" s="277"/>
+      <c r="G39" s="277"/>
+      <c r="H39" s="277"/>
+      <c r="I39" s="277"/>
+      <c r="J39" s="277"/>
+      <c r="K39" s="277"/>
+      <c r="L39" s="277"/>
+      <c r="M39" s="277"/>
+      <c r="N39" s="278"/>
+      <c r="O39" s="282" t="s">
+        <v>86</v>
+      </c>
+      <c r="P39" s="283"/>
+      <c r="Q39" s="283"/>
+      <c r="R39" s="283"/>
+      <c r="S39" s="283"/>
+      <c r="T39" s="283"/>
+      <c r="U39" s="283"/>
+      <c r="V39" s="283"/>
+      <c r="W39" s="283"/>
+      <c r="X39" s="284"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="E40" s="279"/>
+      <c r="F40" s="280"/>
+      <c r="G40" s="280"/>
+      <c r="H40" s="280"/>
+      <c r="I40" s="280"/>
+      <c r="J40" s="280"/>
+      <c r="K40" s="280"/>
+      <c r="L40" s="280"/>
+      <c r="M40" s="280"/>
+      <c r="N40" s="281"/>
+      <c r="O40" s="285" t="s">
+        <v>87</v>
+      </c>
+      <c r="P40" s="286"/>
+      <c r="Q40" s="286"/>
+      <c r="R40" s="286"/>
+      <c r="S40" s="286"/>
+      <c r="T40" s="286"/>
+      <c r="U40" s="286"/>
+      <c r="V40" s="286"/>
+      <c r="W40" s="286"/>
+      <c r="X40" s="287"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="E41" s="244" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="245"/>
+      <c r="G41" s="245"/>
+      <c r="H41" s="245"/>
+      <c r="I41" s="245"/>
+      <c r="J41" s="245"/>
+      <c r="K41" s="245"/>
+      <c r="L41" s="245"/>
+      <c r="M41" s="245"/>
+      <c r="N41" s="245"/>
+      <c r="O41" s="245"/>
+      <c r="P41" s="245"/>
+      <c r="Q41" s="245"/>
+      <c r="R41" s="245"/>
+      <c r="S41" s="245"/>
+      <c r="T41" s="245"/>
+      <c r="U41" s="245"/>
+      <c r="V41" s="245"/>
+      <c r="W41" s="245"/>
+      <c r="X41" s="246"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="E42" s="79"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+      <c r="P42" s="80"/>
+      <c r="Q42" s="80"/>
+      <c r="R42" s="80"/>
+      <c r="S42" s="80"/>
+      <c r="T42" s="80"/>
+      <c r="U42" s="80"/>
+      <c r="V42" s="80"/>
+      <c r="W42" s="80"/>
+      <c r="X42" s="81"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="E43" s="82"/>
+      <c r="F43" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="286"/>
-      <c r="G39" s="286"/>
-      <c r="H39" s="286"/>
-      <c r="I39" s="286"/>
-      <c r="J39" s="286"/>
-      <c r="K39" s="286"/>
-      <c r="L39" s="286"/>
-      <c r="M39" s="286"/>
-      <c r="N39" s="287"/>
-      <c r="O39" s="294" t="s">
-        <v>87</v>
-      </c>
-      <c r="P39" s="295"/>
-      <c r="Q39" s="295"/>
-      <c r="R39" s="295"/>
-      <c r="S39" s="295"/>
-      <c r="T39" s="295"/>
-      <c r="U39" s="295"/>
-      <c r="V39" s="295"/>
-      <c r="W39" s="295"/>
-      <c r="X39" s="296"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="E40" s="288"/>
-      <c r="F40" s="289"/>
-      <c r="G40" s="289"/>
-      <c r="H40" s="289"/>
-      <c r="I40" s="289"/>
-      <c r="J40" s="289"/>
-      <c r="K40" s="289"/>
-      <c r="L40" s="289"/>
-      <c r="M40" s="289"/>
-      <c r="N40" s="290"/>
-      <c r="O40" s="294" t="s">
-        <v>88</v>
-      </c>
-      <c r="P40" s="295"/>
-      <c r="Q40" s="295"/>
-      <c r="R40" s="295"/>
-      <c r="S40" s="295"/>
-      <c r="T40" s="295"/>
-      <c r="U40" s="295"/>
-      <c r="V40" s="295"/>
-      <c r="W40" s="295"/>
-      <c r="X40" s="296"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="E41" s="291"/>
-      <c r="F41" s="292"/>
-      <c r="G41" s="292"/>
-      <c r="H41" s="292"/>
-      <c r="I41" s="292"/>
-      <c r="J41" s="292"/>
-      <c r="K41" s="292"/>
-      <c r="L41" s="292"/>
-      <c r="M41" s="292"/>
-      <c r="N41" s="293"/>
-      <c r="O41" s="297" t="s">
-        <v>89</v>
-      </c>
-      <c r="P41" s="298"/>
-      <c r="Q41" s="298"/>
-      <c r="R41" s="298"/>
-      <c r="S41" s="298"/>
-      <c r="T41" s="298"/>
-      <c r="U41" s="298"/>
-      <c r="V41" s="298"/>
-      <c r="W41" s="298"/>
-      <c r="X41" s="299"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="E42" s="243" t="s">
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="244"/>
-      <c r="G42" s="244"/>
-      <c r="H42" s="244"/>
-      <c r="I42" s="244"/>
-      <c r="J42" s="244"/>
-      <c r="K42" s="244"/>
-      <c r="L42" s="244"/>
-      <c r="M42" s="244"/>
-      <c r="N42" s="244"/>
-      <c r="O42" s="244"/>
-      <c r="P42" s="244"/>
-      <c r="Q42" s="244"/>
-      <c r="R42" s="244"/>
-      <c r="S42" s="244"/>
-      <c r="T42" s="244"/>
-      <c r="U42" s="244"/>
-      <c r="V42" s="244"/>
-      <c r="W42" s="244"/>
-      <c r="X42" s="245"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="E43" s="80"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="81"/>
-      <c r="S43" s="81"/>
-      <c r="T43" s="81"/>
-      <c r="U43" s="81"/>
-      <c r="V43" s="81"/>
-      <c r="W43" s="81"/>
-      <c r="X43" s="82"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="O43" s="84"/>
+      <c r="P43" s="84"/>
+      <c r="Q43" s="84"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="86"/>
+      <c r="T43" s="86"/>
+      <c r="U43" s="86"/>
+      <c r="V43" s="86"/>
+      <c r="W43" s="86"/>
+      <c r="X43" s="87"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="E44" s="83"/>
-      <c r="F44" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
-      <c r="Q44" s="85"/>
-      <c r="R44" s="87"/>
-      <c r="S44" s="87"/>
-      <c r="T44" s="87"/>
-      <c r="U44" s="87"/>
-      <c r="V44" s="87"/>
-      <c r="W44" s="87"/>
-      <c r="X44" s="88"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="E45" s="89"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="90"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="90"/>
-      <c r="P45" s="90"/>
-      <c r="Q45" s="90"/>
-      <c r="R45" s="90"/>
-      <c r="S45" s="90"/>
-      <c r="T45" s="92"/>
-      <c r="U45" s="90"/>
-      <c r="V45" s="90"/>
-      <c r="W45" s="90"/>
-      <c r="X45" s="93"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="91"/>
+      <c r="U44" s="89"/>
+      <c r="V44" s="89"/>
+      <c r="W44" s="89"/>
+      <c r="X44" s="92"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
-      <c r="E47" t="s">
-        <v>119</v>
-      </c>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47"/>
-      <c r="X47"/>
-      <c r="Y47"/>
-      <c r="Z47"/>
-      <c r="AA47"/>
-      <c r="AB47"/>
-      <c r="AC47"/>
-      <c r="AD47"/>
-      <c r="AE47"/>
-      <c r="AF47"/>
-      <c r="AG47"/>
-      <c r="AH47"/>
-      <c r="AI47"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="E47" s="238" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="239"/>
+      <c r="G47" s="239"/>
+      <c r="H47" s="239"/>
+      <c r="I47" s="239"/>
+      <c r="J47" s="240" t="s">
+        <v>112</v>
+      </c>
+      <c r="K47" s="240"/>
+      <c r="L47" s="240"/>
+      <c r="M47" s="241" t="s">
+        <v>113</v>
+      </c>
+      <c r="N47" s="242"/>
+      <c r="O47" s="242"/>
+      <c r="P47" s="242"/>
+      <c r="Q47" s="242"/>
+      <c r="R47" s="242"/>
+      <c r="S47" s="243"/>
+      <c r="T47" s="241" t="s">
+        <v>89</v>
+      </c>
+      <c r="U47" s="242"/>
+      <c r="V47" s="242"/>
+      <c r="W47" s="242"/>
+      <c r="X47" s="242"/>
+      <c r="Y47" s="242"/>
+      <c r="Z47" s="242"/>
+      <c r="AA47" s="242"/>
+      <c r="AB47" s="242"/>
+      <c r="AC47" s="242"/>
+      <c r="AD47" s="243"/>
+    </row>
+    <row r="48" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
-      <c r="E48" s="237" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="238"/>
-      <c r="G48" s="238"/>
-      <c r="H48" s="238"/>
-      <c r="I48" s="238"/>
-      <c r="J48" s="239" t="s">
-        <v>114</v>
-      </c>
-      <c r="K48" s="239"/>
-      <c r="L48" s="239"/>
-      <c r="M48" s="240" t="s">
+      <c r="E48" s="230" t="s">
         <v>115</v>
       </c>
-      <c r="N48" s="241"/>
-      <c r="O48" s="241"/>
-      <c r="P48" s="241"/>
-      <c r="Q48" s="241"/>
-      <c r="R48" s="241"/>
-      <c r="S48" s="242"/>
-      <c r="T48" s="240" t="s">
-        <v>91</v>
-      </c>
-      <c r="U48" s="241"/>
-      <c r="V48" s="241"/>
-      <c r="W48" s="241"/>
-      <c r="X48" s="241"/>
-      <c r="Y48" s="241"/>
-      <c r="Z48" s="241"/>
-      <c r="AA48" s="241"/>
-      <c r="AB48" s="241"/>
-      <c r="AC48" s="241"/>
-      <c r="AD48" s="242"/>
+      <c r="F48" s="231"/>
+      <c r="G48" s="231"/>
+      <c r="H48" s="231"/>
+      <c r="I48" s="231"/>
+      <c r="J48" s="235" t="s">
+        <v>122</v>
+      </c>
+      <c r="K48" s="235"/>
+      <c r="L48" s="235"/>
+      <c r="M48" s="230" t="s">
+        <v>123</v>
+      </c>
+      <c r="N48" s="231"/>
+      <c r="O48" s="231"/>
+      <c r="P48" s="231"/>
+      <c r="Q48" s="231"/>
+      <c r="R48" s="231"/>
+      <c r="S48" s="232"/>
+      <c r="T48" s="230" t="s">
+        <v>116</v>
+      </c>
+      <c r="U48" s="231"/>
+      <c r="V48" s="231"/>
+      <c r="W48" s="231"/>
+      <c r="X48" s="231"/>
+      <c r="Y48" s="231"/>
+      <c r="Z48" s="231"/>
+      <c r="AA48" s="231"/>
+      <c r="AB48" s="231"/>
+      <c r="AC48" s="231"/>
+      <c r="AD48" s="232"/>
     </row>
     <row r="49" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
-      <c r="E49" s="224" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" s="225"/>
-      <c r="G49" s="225"/>
-      <c r="H49" s="225"/>
-      <c r="I49" s="225"/>
-      <c r="J49" s="229" t="s">
-        <v>124</v>
-      </c>
-      <c r="K49" s="229"/>
-      <c r="L49" s="229"/>
-      <c r="M49" s="224" t="s">
-        <v>125</v>
-      </c>
-      <c r="N49" s="225"/>
-      <c r="O49" s="225"/>
-      <c r="P49" s="225"/>
-      <c r="Q49" s="225"/>
-      <c r="R49" s="225"/>
-      <c r="S49" s="226"/>
-      <c r="T49" s="224" t="s">
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="97"/>
+      <c r="L49" s="97"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="96"/>
+      <c r="O49" s="96"/>
+      <c r="P49" s="96"/>
+      <c r="Q49" s="96"/>
+      <c r="R49" s="96"/>
+      <c r="S49" s="96"/>
+      <c r="T49" s="96"/>
+      <c r="U49" s="96"/>
+      <c r="V49" s="96"/>
+      <c r="W49" s="96"/>
+      <c r="X49" s="96"/>
+      <c r="Y49" s="96"/>
+      <c r="Z49" s="96"/>
+      <c r="AA49" s="96"/>
+      <c r="AB49" s="96"/>
+      <c r="AC49" s="96"/>
+      <c r="AD49" s="96"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="D50" t="s">
         <v>118</v>
       </c>
-      <c r="U49" s="225"/>
-      <c r="V49" s="225"/>
-      <c r="W49" s="225"/>
-      <c r="X49" s="225"/>
-      <c r="Y49" s="225"/>
-      <c r="Z49" s="225"/>
-      <c r="AA49" s="225"/>
-      <c r="AB49" s="225"/>
-      <c r="AC49" s="225"/>
-      <c r="AD49" s="226"/>
-    </row>
-    <row r="50" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="98"/>
-      <c r="K50" s="98"/>
-      <c r="L50" s="98"/>
-      <c r="M50" s="97"/>
-      <c r="N50" s="97"/>
-      <c r="O50" s="97"/>
-      <c r="P50" s="97"/>
-      <c r="Q50" s="97"/>
-      <c r="R50" s="97"/>
-      <c r="S50" s="97"/>
-      <c r="T50" s="97"/>
-      <c r="U50" s="97"/>
-      <c r="V50" s="97"/>
-      <c r="W50" s="97"/>
-      <c r="X50" s="97"/>
-      <c r="Y50" s="97"/>
-      <c r="Z50" s="97"/>
-      <c r="AA50" s="97"/>
-      <c r="AB50" s="97"/>
-      <c r="AC50" s="97"/>
-      <c r="AD50" s="97"/>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D51" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="E53" t="s">
-        <v>121</v>
-      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="E52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="D54"/>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D55"/>
+      <c r="C55" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="27"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="27"/>
+      <c r="Y55" s="27"/>
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="27"/>
+      <c r="AB55" s="27"/>
+      <c r="AC55" s="27"/>
+      <c r="AD55" s="27"/>
+      <c r="AE55" s="27"/>
+      <c r="AF55" s="27"/>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="C56" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27" t="s">
+        <v>37</v>
+      </c>
       <c r="E56" s="27"/>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
@@ -12850,9 +12880,7 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C57" s="27"/>
-      <c r="D57" s="27" t="s">
-        <v>37</v>
-      </c>
+      <c r="D57" s="27"/>
       <c r="E57" s="27"/>
       <c r="F57" s="27"/>
       <c r="G57" s="27"/>
@@ -12884,41 +12912,41 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="27"/>
-      <c r="V58" s="27"/>
-      <c r="W58" s="27"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="27"/>
-      <c r="Z58" s="27"/>
-      <c r="AA58" s="27"/>
-      <c r="AB58" s="27"/>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="27"/>
+      <c r="E58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="25"/>
       <c r="AE58" s="27"/>
       <c r="AF58" s="27"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C59" s="27"/>
-      <c r="E59" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -12949,77 +12977,77 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C60" s="27"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="25"/>
-      <c r="AE60" s="27"/>
-      <c r="AF60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="266" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="266"/>
+      <c r="G60" s="267" t="s">
+        <v>121</v>
+      </c>
+      <c r="H60" s="268"/>
+      <c r="I60" s="268"/>
+      <c r="J60" s="268"/>
+      <c r="K60" s="268"/>
+      <c r="L60" s="269"/>
+      <c r="M60" s="266" t="s">
+        <v>22</v>
+      </c>
+      <c r="N60" s="266"/>
+      <c r="O60" s="267" t="s">
+        <v>80</v>
+      </c>
+      <c r="P60" s="268"/>
+      <c r="Q60" s="268"/>
+      <c r="R60" s="268"/>
+      <c r="S60" s="268"/>
+      <c r="T60" s="268"/>
+      <c r="U60" s="268"/>
+      <c r="V60" s="268"/>
+      <c r="W60" s="268"/>
+      <c r="X60" s="268"/>
+      <c r="Y60" s="268"/>
+      <c r="Z60" s="268"/>
+      <c r="AA60" s="268"/>
+      <c r="AB60" s="268"/>
+      <c r="AC60" s="268"/>
+      <c r="AD60" s="268"/>
+      <c r="AE60" s="268"/>
+      <c r="AF60" s="268"/>
+      <c r="AG60" s="268"/>
+      <c r="AH60" s="269"/>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
-      <c r="E61" s="233" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="233"/>
-      <c r="G61" s="265" t="s">
-        <v>123</v>
-      </c>
-      <c r="H61" s="266"/>
-      <c r="I61" s="266"/>
-      <c r="J61" s="266"/>
-      <c r="K61" s="266"/>
-      <c r="L61" s="267"/>
-      <c r="M61" s="233" t="s">
-        <v>22</v>
-      </c>
-      <c r="N61" s="233"/>
-      <c r="O61" s="265" t="s">
-        <v>82</v>
-      </c>
-      <c r="P61" s="266"/>
-      <c r="Q61" s="266"/>
-      <c r="R61" s="266"/>
-      <c r="S61" s="266"/>
-      <c r="T61" s="266"/>
-      <c r="U61" s="266"/>
-      <c r="V61" s="266"/>
-      <c r="W61" s="266"/>
-      <c r="X61" s="266"/>
-      <c r="Y61" s="266"/>
-      <c r="Z61" s="266"/>
-      <c r="AA61" s="266"/>
-      <c r="AB61" s="266"/>
-      <c r="AC61" s="266"/>
-      <c r="AD61" s="266"/>
-      <c r="AE61" s="266"/>
-      <c r="AF61" s="266"/>
-      <c r="AG61" s="266"/>
-      <c r="AH61" s="267"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="27"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="27"/>
+      <c r="V61" s="27"/>
+      <c r="W61" s="27"/>
+      <c r="X61" s="27"/>
+      <c r="Y61" s="27"/>
+      <c r="Z61" s="27"/>
+      <c r="AA61" s="27"/>
+      <c r="AB61" s="27"/>
+      <c r="AC61" s="27"/>
+      <c r="AD61" s="27"/>
+      <c r="AE61" s="27"/>
+      <c r="AF61" s="27"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C62" s="27"/>
@@ -13055,7 +13083,9 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
+      <c r="D63" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
@@ -13087,9 +13117,7 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C64" s="27"/>
-      <c r="D64" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="D64" s="27"/>
       <c r="E64" s="27"/>
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
@@ -13122,343 +13150,318 @@
     <row r="65" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="27"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="27"/>
-      <c r="W65" s="27"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="27"/>
-      <c r="Z65" s="27"/>
-      <c r="AA65" s="27"/>
-      <c r="AB65" s="27"/>
-      <c r="AC65" s="27"/>
-      <c r="AD65" s="27"/>
-      <c r="AE65" s="27"/>
-      <c r="AF65" s="27"/>
+      <c r="E65" s="302" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="294" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="295"/>
+      <c r="H65" s="295"/>
+      <c r="I65" s="296"/>
+      <c r="J65" s="294" t="s">
+        <v>24</v>
+      </c>
+      <c r="K65" s="295"/>
+      <c r="L65" s="295"/>
+      <c r="M65" s="296"/>
+      <c r="N65" s="300" t="s">
+        <v>25</v>
+      </c>
+      <c r="O65" s="300"/>
+      <c r="P65" s="300"/>
+      <c r="Q65" s="300"/>
+      <c r="R65" s="300"/>
+      <c r="S65" s="300"/>
+      <c r="T65" s="300"/>
+      <c r="U65" s="300"/>
+      <c r="V65" s="300"/>
+      <c r="W65" s="294" t="s">
+        <v>33</v>
+      </c>
+      <c r="X65" s="295"/>
+      <c r="Y65" s="295"/>
+      <c r="Z65" s="295"/>
+      <c r="AA65" s="295"/>
+      <c r="AB65" s="295"/>
+      <c r="AC65" s="296"/>
+      <c r="AD65" s="294" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE65" s="295"/>
+      <c r="AF65" s="295"/>
+      <c r="AG65" s="295"/>
+      <c r="AH65" s="296"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="300" t="s">
-        <v>52</v>
-      </c>
-      <c r="F66" s="274" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="275"/>
-      <c r="H66" s="275"/>
-      <c r="I66" s="276"/>
-      <c r="J66" s="274" t="s">
-        <v>24</v>
-      </c>
-      <c r="K66" s="275"/>
-      <c r="L66" s="275"/>
-      <c r="M66" s="276"/>
-      <c r="N66" s="280" t="s">
-        <v>25</v>
-      </c>
-      <c r="O66" s="280"/>
-      <c r="P66" s="280"/>
-      <c r="Q66" s="280"/>
-      <c r="R66" s="280"/>
-      <c r="S66" s="280"/>
-      <c r="T66" s="280"/>
-      <c r="U66" s="280"/>
-      <c r="V66" s="280"/>
-      <c r="W66" s="274" t="s">
-        <v>33</v>
-      </c>
-      <c r="X66" s="275"/>
-      <c r="Y66" s="275"/>
-      <c r="Z66" s="275"/>
-      <c r="AA66" s="275"/>
-      <c r="AB66" s="275"/>
-      <c r="AC66" s="276"/>
-      <c r="AD66" s="274" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE66" s="275"/>
-      <c r="AF66" s="275"/>
-      <c r="AG66" s="275"/>
-      <c r="AH66" s="276"/>
-    </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="C67" s="27"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="301"/>
-      <c r="F67" s="277"/>
-      <c r="G67" s="278"/>
-      <c r="H67" s="278"/>
-      <c r="I67" s="279"/>
-      <c r="J67" s="277"/>
-      <c r="K67" s="278"/>
-      <c r="L67" s="278"/>
-      <c r="M67" s="279"/>
-      <c r="N67" s="280" t="s">
+      <c r="D66" s="1"/>
+      <c r="E66" s="303"/>
+      <c r="F66" s="297"/>
+      <c r="G66" s="298"/>
+      <c r="H66" s="298"/>
+      <c r="I66" s="299"/>
+      <c r="J66" s="297"/>
+      <c r="K66" s="298"/>
+      <c r="L66" s="298"/>
+      <c r="M66" s="299"/>
+      <c r="N66" s="300" t="s">
         <v>28</v>
       </c>
-      <c r="O67" s="280"/>
-      <c r="P67" s="280"/>
-      <c r="Q67" s="280"/>
-      <c r="R67" s="280"/>
-      <c r="S67" s="281" t="s">
+      <c r="O66" s="300"/>
+      <c r="P66" s="300"/>
+      <c r="Q66" s="300"/>
+      <c r="R66" s="300"/>
+      <c r="S66" s="301" t="s">
         <v>29</v>
       </c>
-      <c r="T67" s="281"/>
-      <c r="U67" s="281"/>
-      <c r="V67" s="281"/>
-      <c r="W67" s="277"/>
-      <c r="X67" s="278"/>
-      <c r="Y67" s="278"/>
-      <c r="Z67" s="278"/>
-      <c r="AA67" s="278"/>
-      <c r="AB67" s="278"/>
-      <c r="AC67" s="279"/>
-      <c r="AD67" s="277"/>
-      <c r="AE67" s="278"/>
-      <c r="AF67" s="278"/>
-      <c r="AG67" s="278"/>
-      <c r="AH67" s="279"/>
+      <c r="T66" s="301"/>
+      <c r="U66" s="301"/>
+      <c r="V66" s="301"/>
+      <c r="W66" s="297"/>
+      <c r="X66" s="298"/>
+      <c r="Y66" s="298"/>
+      <c r="Z66" s="298"/>
+      <c r="AA66" s="298"/>
+      <c r="AB66" s="298"/>
+      <c r="AC66" s="299"/>
+      <c r="AD66" s="297"/>
+      <c r="AE66" s="298"/>
+      <c r="AF66" s="298"/>
+      <c r="AG66" s="298"/>
+      <c r="AH66" s="299"/>
+    </row>
+    <row r="67" spans="1:34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="105"/>
+      <c r="E67" s="115">
+        <v>1</v>
+      </c>
+      <c r="F67" s="230" t="s">
+        <v>132</v>
+      </c>
+      <c r="G67" s="231"/>
+      <c r="H67" s="231"/>
+      <c r="I67" s="232"/>
+      <c r="J67" s="230" t="s">
+        <v>81</v>
+      </c>
+      <c r="K67" s="231"/>
+      <c r="L67" s="231"/>
+      <c r="M67" s="232"/>
+      <c r="N67" s="233" t="s">
+        <v>84</v>
+      </c>
+      <c r="O67" s="234"/>
+      <c r="P67" s="234"/>
+      <c r="Q67" s="234"/>
+      <c r="R67" s="234"/>
+      <c r="S67" s="235" t="s">
+        <v>85</v>
+      </c>
+      <c r="T67" s="235"/>
+      <c r="U67" s="235"/>
+      <c r="V67" s="235"/>
+      <c r="W67" s="132"/>
+      <c r="X67" s="236"/>
+      <c r="Y67" s="236"/>
+      <c r="Z67" s="236"/>
+      <c r="AA67" s="236"/>
+      <c r="AB67" s="236"/>
+      <c r="AC67" s="237"/>
+      <c r="AD67" s="132"/>
+      <c r="AE67" s="236"/>
+      <c r="AF67" s="236"/>
+      <c r="AG67" s="236"/>
+      <c r="AH67" s="237"/>
     </row>
     <row r="68" spans="1:34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="106"/>
-      <c r="E68" s="116">
-        <v>1</v>
-      </c>
-      <c r="F68" s="224" t="s">
+      <c r="C68" s="105"/>
+      <c r="E68" s="115">
+        <v>2</v>
+      </c>
+      <c r="F68" s="230" t="s">
+        <v>133</v>
+      </c>
+      <c r="G68" s="231"/>
+      <c r="H68" s="231"/>
+      <c r="I68" s="232"/>
+      <c r="J68" s="230" t="s">
+        <v>82</v>
+      </c>
+      <c r="K68" s="231"/>
+      <c r="L68" s="231"/>
+      <c r="M68" s="232"/>
+      <c r="N68" s="233" t="s">
+        <v>84</v>
+      </c>
+      <c r="O68" s="234"/>
+      <c r="P68" s="234"/>
+      <c r="Q68" s="234"/>
+      <c r="R68" s="234"/>
+      <c r="S68" s="235" t="s">
+        <v>86</v>
+      </c>
+      <c r="T68" s="235"/>
+      <c r="U68" s="235"/>
+      <c r="V68" s="235"/>
+      <c r="W68" s="132"/>
+      <c r="X68" s="236"/>
+      <c r="Y68" s="236"/>
+      <c r="Z68" s="236"/>
+      <c r="AA68" s="236"/>
+      <c r="AB68" s="236"/>
+      <c r="AC68" s="237"/>
+      <c r="AD68" s="132"/>
+      <c r="AE68" s="236"/>
+      <c r="AF68" s="236"/>
+      <c r="AG68" s="236"/>
+      <c r="AH68" s="237"/>
+    </row>
+    <row r="69" spans="1:34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="105"/>
+      <c r="E69" s="115">
+        <v>3</v>
+      </c>
+      <c r="F69" s="230" t="s">
         <v>134</v>
       </c>
-      <c r="G68" s="225"/>
-      <c r="H68" s="225"/>
-      <c r="I68" s="226"/>
-      <c r="J68" s="224" t="s">
+      <c r="G69" s="231"/>
+      <c r="H69" s="231"/>
+      <c r="I69" s="232"/>
+      <c r="J69" s="230" t="s">
         <v>83</v>
       </c>
-      <c r="K68" s="225"/>
-      <c r="L68" s="225"/>
-      <c r="M68" s="226"/>
-      <c r="N68" s="227" t="s">
-        <v>86</v>
-      </c>
-      <c r="O68" s="228"/>
-      <c r="P68" s="228"/>
-      <c r="Q68" s="228"/>
-      <c r="R68" s="228"/>
-      <c r="S68" s="229" t="s">
+      <c r="K69" s="231"/>
+      <c r="L69" s="231"/>
+      <c r="M69" s="232"/>
+      <c r="N69" s="233" t="s">
+        <v>84</v>
+      </c>
+      <c r="O69" s="234"/>
+      <c r="P69" s="234"/>
+      <c r="Q69" s="234"/>
+      <c r="R69" s="234"/>
+      <c r="S69" s="235" t="s">
         <v>87</v>
       </c>
-      <c r="T68" s="229"/>
-      <c r="U68" s="229"/>
-      <c r="V68" s="229"/>
-      <c r="W68" s="230"/>
-      <c r="X68" s="231"/>
-      <c r="Y68" s="231"/>
-      <c r="Z68" s="231"/>
-      <c r="AA68" s="231"/>
-      <c r="AB68" s="231"/>
-      <c r="AC68" s="232"/>
-      <c r="AD68" s="230"/>
-      <c r="AE68" s="231"/>
-      <c r="AF68" s="231"/>
-      <c r="AG68" s="231"/>
-      <c r="AH68" s="232"/>
-    </row>
-    <row r="69" spans="1:34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="106"/>
-      <c r="E69" s="116">
-        <v>2</v>
-      </c>
-      <c r="F69" s="224" t="s">
-        <v>135</v>
-      </c>
-      <c r="G69" s="225"/>
-      <c r="H69" s="225"/>
-      <c r="I69" s="226"/>
-      <c r="J69" s="224" t="s">
+      <c r="T69" s="235"/>
+      <c r="U69" s="235"/>
+      <c r="V69" s="235"/>
+      <c r="W69" s="132"/>
+      <c r="X69" s="236"/>
+      <c r="Y69" s="236"/>
+      <c r="Z69" s="236"/>
+      <c r="AA69" s="236"/>
+      <c r="AB69" s="236"/>
+      <c r="AC69" s="237"/>
+      <c r="AD69" s="132"/>
+      <c r="AE69" s="236"/>
+      <c r="AF69" s="236"/>
+      <c r="AG69" s="236"/>
+      <c r="AH69" s="237"/>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70" s="105"/>
+      <c r="D70"/>
+      <c r="E70" s="115">
+        <v>4</v>
+      </c>
+      <c r="F70" s="230" t="s">
+        <v>138</v>
+      </c>
+      <c r="G70" s="231"/>
+      <c r="H70" s="231"/>
+      <c r="I70" s="232"/>
+      <c r="J70" s="230" t="s">
+        <v>139</v>
+      </c>
+      <c r="K70" s="231"/>
+      <c r="L70" s="231"/>
+      <c r="M70" s="232"/>
+      <c r="N70" s="233" t="s">
         <v>84</v>
       </c>
-      <c r="K69" s="225"/>
-      <c r="L69" s="225"/>
-      <c r="M69" s="226"/>
-      <c r="N69" s="227" t="s">
-        <v>86</v>
-      </c>
-      <c r="O69" s="228"/>
-      <c r="P69" s="228"/>
-      <c r="Q69" s="228"/>
-      <c r="R69" s="228"/>
-      <c r="S69" s="229" t="s">
-        <v>88</v>
-      </c>
-      <c r="T69" s="229"/>
-      <c r="U69" s="229"/>
-      <c r="V69" s="229"/>
-      <c r="W69" s="230"/>
-      <c r="X69" s="231"/>
-      <c r="Y69" s="231"/>
-      <c r="Z69" s="231"/>
-      <c r="AA69" s="231"/>
-      <c r="AB69" s="231"/>
-      <c r="AC69" s="232"/>
-      <c r="AD69" s="230"/>
-      <c r="AE69" s="231"/>
-      <c r="AF69" s="231"/>
-      <c r="AG69" s="231"/>
-      <c r="AH69" s="232"/>
-    </row>
-    <row r="70" spans="1:34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="106"/>
-      <c r="E70" s="116">
-        <v>3</v>
-      </c>
-      <c r="F70" s="224" t="s">
-        <v>136</v>
-      </c>
-      <c r="G70" s="225"/>
-      <c r="H70" s="225"/>
-      <c r="I70" s="226"/>
-      <c r="J70" s="224" t="s">
-        <v>85</v>
-      </c>
-      <c r="K70" s="225"/>
-      <c r="L70" s="225"/>
-      <c r="M70" s="226"/>
-      <c r="N70" s="227" t="s">
-        <v>86</v>
-      </c>
-      <c r="O70" s="228"/>
-      <c r="P70" s="228"/>
-      <c r="Q70" s="228"/>
-      <c r="R70" s="228"/>
-      <c r="S70" s="229" t="s">
-        <v>89</v>
-      </c>
-      <c r="T70" s="229"/>
-      <c r="U70" s="229"/>
-      <c r="V70" s="229"/>
-      <c r="W70" s="230"/>
-      <c r="X70" s="231"/>
-      <c r="Y70" s="231"/>
-      <c r="Z70" s="231"/>
-      <c r="AA70" s="231"/>
-      <c r="AB70" s="231"/>
-      <c r="AC70" s="232"/>
-      <c r="AD70" s="230"/>
-      <c r="AE70" s="231"/>
-      <c r="AF70" s="231"/>
-      <c r="AG70" s="231"/>
-      <c r="AH70" s="232"/>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71" s="106"/>
-      <c r="D71"/>
-      <c r="E71" s="116">
-        <v>4</v>
-      </c>
-      <c r="F71" s="224" t="s">
-        <v>140</v>
-      </c>
-      <c r="G71" s="225"/>
-      <c r="H71" s="225"/>
-      <c r="I71" s="226"/>
-      <c r="J71" s="224" t="s">
-        <v>141</v>
-      </c>
-      <c r="K71" s="225"/>
-      <c r="L71" s="225"/>
-      <c r="M71" s="226"/>
-      <c r="N71" s="227" t="s">
-        <v>86</v>
-      </c>
-      <c r="O71" s="228"/>
-      <c r="P71" s="228"/>
-      <c r="Q71" s="228"/>
-      <c r="R71" s="228"/>
-      <c r="S71" s="229" t="s">
-        <v>141</v>
-      </c>
-      <c r="T71" s="229"/>
-      <c r="U71" s="229"/>
-      <c r="V71" s="229"/>
-      <c r="W71" s="230"/>
-      <c r="X71" s="231"/>
-      <c r="Y71" s="231"/>
-      <c r="Z71" s="231"/>
-      <c r="AA71" s="231"/>
-      <c r="AB71" s="231"/>
-      <c r="AC71" s="232"/>
-      <c r="AD71" s="221"/>
-      <c r="AE71" s="222"/>
-      <c r="AF71" s="222"/>
-      <c r="AG71" s="222"/>
-      <c r="AH71" s="223"/>
+      <c r="O70" s="234"/>
+      <c r="P70" s="234"/>
+      <c r="Q70" s="234"/>
+      <c r="R70" s="234"/>
+      <c r="S70" s="235" t="s">
+        <v>139</v>
+      </c>
+      <c r="T70" s="235"/>
+      <c r="U70" s="235"/>
+      <c r="V70" s="235"/>
+      <c r="W70" s="132"/>
+      <c r="X70" s="236"/>
+      <c r="Y70" s="236"/>
+      <c r="Z70" s="236"/>
+      <c r="AA70" s="236"/>
+      <c r="AB70" s="236"/>
+      <c r="AC70" s="237"/>
+      <c r="AD70" s="227"/>
+      <c r="AE70" s="228"/>
+      <c r="AF70" s="228"/>
+      <c r="AG70" s="228"/>
+      <c r="AH70" s="229"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="AD66:AH67"/>
-    <mergeCell ref="W66:AC67"/>
-    <mergeCell ref="E66:E67"/>
+  <mergeCells count="91">
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="AD65:AH66"/>
+    <mergeCell ref="W65:AC66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F68:I68"/>
     <mergeCell ref="F69:I69"/>
-    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="J67:M67"/>
     <mergeCell ref="J68:M68"/>
-    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="N69:R69"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="W69:AC69"/>
+    <mergeCell ref="AD67:AH67"/>
+    <mergeCell ref="AD68:AH68"/>
+    <mergeCell ref="N68:R68"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="N66:R66"/>
+    <mergeCell ref="S66:V66"/>
+    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="AD69:AH69"/>
+    <mergeCell ref="W67:AC67"/>
+    <mergeCell ref="W68:AC68"/>
+    <mergeCell ref="N67:R67"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="H16:AH16"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="H19:AH19"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="O60:AH60"/>
+    <mergeCell ref="O37:X37"/>
+    <mergeCell ref="E38:N40"/>
     <mergeCell ref="O38:X38"/>
-    <mergeCell ref="E39:N41"/>
     <mergeCell ref="O39:X39"/>
     <mergeCell ref="O40:X40"/>
-    <mergeCell ref="O41:X41"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="N70:R70"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="W70:AC70"/>
-    <mergeCell ref="AD68:AH68"/>
-    <mergeCell ref="AD69:AH69"/>
-    <mergeCell ref="N69:R69"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="N68:R68"/>
-    <mergeCell ref="S68:V68"/>
-    <mergeCell ref="AD70:AH70"/>
-    <mergeCell ref="W68:AC68"/>
-    <mergeCell ref="W69:AC69"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="J66:M67"/>
-    <mergeCell ref="F66:I67"/>
-    <mergeCell ref="N66:V66"/>
-    <mergeCell ref="N67:R67"/>
-    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="T48:AD48"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="E8:J9"/>
     <mergeCell ref="K8:N9"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="O61:AH61"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="H17:AH17"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="H19:AH19"/>
-    <mergeCell ref="H20:AH20"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="P8:U8"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AC2:AF2"/>
@@ -13475,48 +13478,37 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="P8:U8"/>
     <mergeCell ref="E10:J10"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="T49:AD49"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="T48:AD48"/>
-    <mergeCell ref="E42:X42"/>
-    <mergeCell ref="E38:N38"/>
-    <mergeCell ref="AD71:AH71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="N71:R71"/>
-    <mergeCell ref="S71:V71"/>
-    <mergeCell ref="W71:AC71"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="E37:N37"/>
+    <mergeCell ref="AD70:AH70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N70:R70"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="W70:AC70"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:S47"/>
+    <mergeCell ref="T47:AD47"/>
+    <mergeCell ref="E41:X41"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J65:M66"/>
+    <mergeCell ref="F65:I66"/>
+    <mergeCell ref="N65:V65"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:N12" xr:uid="{00000000-0002-0000-0500-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:N11" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>種別一覧</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O12" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O11" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"I,O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:U12" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:U11" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"○,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13527,8 +13519,8 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="28" max="34" man="1"/>
-    <brk id="55" max="34" man="1"/>
+    <brk id="27" max="34" man="1"/>
+    <brk id="54" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
